--- a/Dummy_File_excel.xlsx
+++ b/Dummy_File_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandrashekharbanerjee/Documents/git_tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19AE0AF1-0015-354D-ADB4-A96F6E2934A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D47153-50F7-3F43-85DE-77F0063D7257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{D2D81E55-CB86-3043-A236-2C6A08686D93}"/>
   </bookViews>
@@ -34,12 +34,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Dummy_1</t>
+  </si>
+  <si>
+    <t>Dummy_2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,12 +398,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDD5DC0-8628-2F47-886E-D8918A19BBD6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>